--- a/src/test/resources/case/Login.xlsx
+++ b/src/test/resources/case/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/src/test/resources/expected/Login_individual.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,10 @@
   </si>
   <si>
     <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/expected/Login_individual.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -495,7 +495,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -524,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -547,7 +547,7 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -558,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -610,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case/Login.xlsx
+++ b/src/test/resources/case/Login.xlsx
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nchr/person/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灰太狼</t>
   </si>
   <si>
@@ -112,6 +108,10 @@
   </si>
   <si>
     <t>/expected/Login_individual.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/person/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -535,36 +535,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -607,18 +607,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
